--- a/burn down.xlsx
+++ b/burn down.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Days</t>
   </si>
@@ -25,6 +25,21 @@
   </si>
   <si>
     <t>Story Points remaining</t>
+  </si>
+  <si>
+    <t>Hours taken</t>
+  </si>
+  <si>
+    <t>Story points done</t>
+  </si>
+  <si>
+    <t>Team velocity= 2.8 story/hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Total: 58</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
 </sst>
 </file>
@@ -60,16 +75,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -263,26 +320,128 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hours taken</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Story points done</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:marker val="1"/>
-        <c:axId val="49969024"/>
-        <c:axId val="49970560"/>
+        <c:axId val="78263424"/>
+        <c:axId val="78264960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49969024"/>
+        <c:axId val="78263424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49970560"/>
+        <c:crossAx val="78264960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49970560"/>
+        <c:axId val="78264960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -314,7 +473,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49969024"/>
+        <c:crossAx val="78263424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -327,7 +486,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -338,16 +497,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -419,12 +578,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:D10" totalsRowShown="0">
-  <autoFilter ref="B2:D10"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Days"/>
-    <tableColumn id="2" name="Actual Story Points "/>
-    <tableColumn id="3" name="Story Points remaining"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:F11" totalsRowCount="1">
+  <autoFilter ref="B2:F11">
+    <filterColumn colId="3"/>
+    <filterColumn colId="4"/>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Days" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="Actual Story Points " totalsRowDxfId="3"/>
+    <tableColumn id="3" name="Story Points remaining" totalsRowDxfId="2"/>
+    <tableColumn id="4" name="Hours taken" totalsRowLabel="21" totalsRowDxfId="1"/>
+    <tableColumn id="5" name="Story points done" totalsRowLabel=" Total: 58" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -715,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D10"/>
+  <dimension ref="B2:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -726,11 +890,13 @@
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="7" width="11" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -740,8 +906,14 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:7">
       <c r="B3">
         <v>0</v>
       </c>
@@ -751,8 +923,14 @@
       <c r="D3">
         <v>58</v>
       </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:7">
       <c r="B4">
         <v>1</v>
       </c>
@@ -762,8 +940,14 @@
       <c r="D4">
         <v>50</v>
       </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:7">
       <c r="B5">
         <v>2</v>
       </c>
@@ -773,8 +957,14 @@
       <c r="D5">
         <v>45</v>
       </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:7">
       <c r="B6">
         <v>3</v>
       </c>
@@ -784,8 +974,14 @@
       <c r="D6">
         <v>40</v>
       </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:7">
       <c r="B7">
         <v>4</v>
       </c>
@@ -795,8 +991,14 @@
       <c r="D7">
         <v>37</v>
       </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:7">
       <c r="B8">
         <v>5</v>
       </c>
@@ -806,8 +1008,14 @@
       <c r="D8">
         <v>30</v>
       </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:7">
       <c r="B9">
         <v>6</v>
       </c>
@@ -817,8 +1025,14 @@
       <c r="D9">
         <v>15</v>
       </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:7">
       <c r="B10">
         <v>7</v>
       </c>
@@ -827,6 +1041,29 @@
       </c>
       <c r="D10">
         <v>0</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="D13" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
